--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt2.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak Info; File 0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Signal Data; File 0" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Signal Data; File 0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Peak Info; File 0" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -480,10 +480,10 @@
         <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.2921904761904764</v>
+        <v>-0.2921904761904761</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.2921904761904764</v>
+        <v>-0.2921904761904761</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>-0.268</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1155318957771789</v>
+        <v>-0.1155318957771788</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.2844047619047621</v>
+        <v>-0.2844047619047619</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.2844047619047621</v>
+        <v>-0.2844047619047619</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -535,10 +535,10 @@
         <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.2735238095238097</v>
+        <v>-0.2735238095238096</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.2735238095238097</v>
+        <v>-0.2735238095238096</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.2687142857142859</v>
+        <v>-0.2687142857142857</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.2687142857142859</v>
+        <v>-0.2687142857142857</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.2642857142857144</v>
+        <v>-0.2642857142857142</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.2642857142857144</v>
+        <v>-0.2642857142857142</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.2591904761904763</v>
+        <v>-0.2591904761904762</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.2591904761904763</v>
+        <v>-0.2591904761904762</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -603,10 +603,10 @@
         <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.2546666666666668</v>
+        <v>-0.2546666666666667</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2546666666666668</v>
+        <v>-0.2546666666666667</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.2512380952380954</v>
+        <v>-0.2512380952380953</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.2512380952380954</v>
+        <v>-0.2512380952380953</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.2480476190476192</v>
+        <v>-0.2480476190476191</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.2480476190476192</v>
+        <v>-0.2480476190476191</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -654,10 +654,10 @@
         <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.2446666666666668</v>
+        <v>-0.2446666666666667</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.2446666666666668</v>
+        <v>-0.2446666666666667</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.2410476190476192</v>
+        <v>-0.2410476190476191</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.2410476190476192</v>
+        <v>-0.2410476190476191</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -688,10 +688,10 @@
         <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.2372857142857144</v>
+        <v>-0.2372857142857143</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.2372857142857144</v>
+        <v>-0.2372857142857143</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.2346666666666668</v>
+        <v>-0.2346666666666667</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.2346666666666668</v>
+        <v>-0.2346666666666667</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.2325714285714287</v>
+        <v>-0.2325714285714286</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.2325714285714287</v>
+        <v>-0.2325714285714286</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.2305714285714287</v>
+        <v>-0.2305714285714286</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.2305714285714287</v>
+        <v>-0.2305714285714286</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.227857142857143</v>
+        <v>-0.2278571428571429</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.227857142857143</v>
+        <v>-0.2278571428571429</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -773,10 +773,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2251428571428573</v>
+        <v>-0.2251428571428571</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.2251428571428573</v>
+        <v>-0.2251428571428571</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -790,10 +790,10 @@
         <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.2230476190476192</v>
+        <v>-0.2230476190476191</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.2230476190476192</v>
+        <v>-0.2230476190476191</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -807,10 +807,10 @@
         <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.2212380952380954</v>
+        <v>-0.2212380952380953</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.2212380952380954</v>
+        <v>-0.2212380952380953</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.2195714285714287</v>
+        <v>-0.2195714285714286</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.2195714285714287</v>
+        <v>-0.2195714285714286</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -841,10 +841,10 @@
         <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.2172857142857144</v>
+        <v>-0.2172857142857143</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.2172857142857144</v>
+        <v>-0.2172857142857143</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.2147142857142859</v>
+        <v>-0.2147142857142857</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.2147142857142859</v>
+        <v>-0.2147142857142857</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -875,10 +875,10 @@
         <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.2129523809523811</v>
+        <v>-0.2129523809523809</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.2129523809523811</v>
+        <v>-0.2129523809523809</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.2118095238095239</v>
+        <v>-0.2118095238095238</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.2118095238095239</v>
+        <v>-0.2118095238095238</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -909,10 +909,10 @@
         <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.2104285714285716</v>
+        <v>-0.2104285714285715</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.2104285714285716</v>
+        <v>-0.2104285714285715</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.2085238095238097</v>
+        <v>-0.2085238095238096</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.2085238095238097</v>
+        <v>-0.2085238095238096</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.2064761904761906</v>
+        <v>-0.2064761904761905</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.2064761904761906</v>
+        <v>-0.2064761904761905</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -960,10 +960,10 @@
         <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.2050952380952382</v>
+        <v>-0.2050952380952381</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.2050952380952382</v>
+        <v>-0.2050952380952381</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.2041428571428573</v>
+        <v>-0.2041428571428572</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.2041428571428573</v>
+        <v>-0.2041428571428572</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0</v>
@@ -994,10 +994,10 @@
         <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.2036666666666668</v>
+        <v>-0.2036666666666667</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.2036666666666668</v>
+        <v>-0.2036666666666667</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.2021428571428573</v>
+        <v>-0.2021428571428572</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.2021428571428573</v>
+        <v>-0.2021428571428572</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
@@ -1028,10 +1028,10 @@
         <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.2005238095238095</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.2005238095238095</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1996666666666668</v>
+        <v>-0.1996666666666667</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1996666666666668</v>
+        <v>-0.1996666666666667</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1990476190476192</v>
+        <v>-0.1990476190476191</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1990476190476192</v>
+        <v>-0.1990476190476191</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
@@ -1079,10 +1079,10 @@
         <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1983333333333335</v>
+        <v>-0.1983333333333334</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1983333333333335</v>
+        <v>-0.1983333333333334</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1973333333333335</v>
+        <v>-0.1973333333333334</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1973333333333335</v>
+        <v>-0.1973333333333334</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.1960000000000001</v>
+        <v>-0.196</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1960000000000002</v>
+        <v>-0.196</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>-2.775557561562891e-17</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1130,13 +1130,13 @@
         <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.1960000000000001</v>
+        <v>-0.196</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1953396226415096</v>
+        <v>-0.1953396226415094</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.0006603773584905326</v>
+        <v>-0.0006603773584905603</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1147,13 +1147,13 @@
         <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1965714285714287</v>
+        <v>-0.1965714285714286</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1946792452830191</v>
+        <v>-0.1946792452830189</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.001892183288409677</v>
+        <v>-0.001892183288409732</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1164,13 +1164,13 @@
         <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.1970476190476192</v>
+        <v>-0.1970476190476191</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1940188679245285</v>
+        <v>-0.1940188679245283</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.003028751123090728</v>
+        <v>-0.003028751123090756</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1181,13 +1181,13 @@
         <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.1972380952380954</v>
+        <v>-0.1972380952380953</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1933584905660379</v>
+        <v>-0.1933584905660377</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.003879604672057474</v>
+        <v>-0.003879604672057529</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1198,13 +1198,13 @@
         <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1975238095238097</v>
+        <v>-0.1975238095238095</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1926981132075473</v>
+        <v>-0.1926981132075472</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.004825696316262312</v>
+        <v>-0.004825696316262368</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1215,13 +1215,13 @@
         <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1985238095238097</v>
+        <v>-0.1985238095238095</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1920377358490568</v>
+        <v>-0.1920377358490566</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.006486073674752874</v>
+        <v>-0.006486073674752929</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1232,13 +1232,13 @@
         <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2001428571428573</v>
+        <v>-0.2001428571428572</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1913773584905662</v>
+        <v>-0.1913773584905661</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.008765498652291093</v>
+        <v>-0.00876549865229112</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1249,13 +1249,13 @@
         <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.201857142857143</v>
+        <v>-0.2018571428571429</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1907169811320756</v>
+        <v>-0.1907169811320755</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.01114016172506738</v>
+        <v>-0.01114016172506743</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1266,13 +1266,13 @@
         <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.2030952380952382</v>
+        <v>-0.2030952380952381</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1900566037735851</v>
+        <v>-0.1900566037735849</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.01303863432165317</v>
+        <v>-0.0130386343216532</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1283,13 +1283,13 @@
         <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.2049523809523811</v>
+        <v>-0.204952380952381</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1893962264150945</v>
+        <v>-0.1893962264150943</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.01555615453728659</v>
+        <v>-0.01555615453728665</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1300,13 +1300,13 @@
         <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.2082380952380954</v>
+        <v>-0.2082380952380953</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1887358490566039</v>
+        <v>-0.1887358490566038</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.01950224618149146</v>
+        <v>-0.01950224618149149</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1317,13 +1317,13 @@
         <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.2121904761904763</v>
+        <v>-0.2121904761904762</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1880754716981134</v>
+        <v>-0.1880754716981132</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.02411500449236295</v>
+        <v>-0.02411500449236298</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1334,10 +1334,10 @@
         <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.2163809523809525</v>
+        <v>-0.2163809523809524</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1874150943396228</v>
+        <v>-0.1874150943396227</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>-0.02896585804132973</v>
@@ -1351,13 +1351,13 @@
         <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.2200476190476192</v>
+        <v>-0.2200476190476191</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1867547169811322</v>
+        <v>-0.1867547169811321</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.03329290206648697</v>
+        <v>-0.03329290206648702</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1368,13 +1368,13 @@
         <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.2240952380952382</v>
+        <v>-0.2240952380952381</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1860943396226417</v>
+        <v>-0.1860943396226415</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.03800089847259658</v>
+        <v>-0.03800089847259661</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1385,10 +1385,10 @@
         <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.2295714285714287</v>
+        <v>-0.2295714285714286</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1854339622641511</v>
+        <v>-0.185433962264151</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>-0.04413746630727763</v>
@@ -1402,13 +1402,13 @@
         <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.235857142857143</v>
+        <v>-0.2358571428571429</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1847735849056605</v>
+        <v>-0.1847735849056604</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.05108355795148245</v>
+        <v>-0.05108355795148251</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1419,13 +1419,13 @@
         <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.2424285714285716</v>
+        <v>-0.2424285714285715</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.18411320754717</v>
+        <v>-0.1841132075471698</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.05831536388140163</v>
+        <v>-0.05831536388140166</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1436,10 +1436,10 @@
         <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.2482857142857144</v>
+        <v>-0.2482857142857143</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1834528301886794</v>
+        <v>-0.1834528301886793</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>-0.06483288409703505</v>
@@ -1453,13 +1453,13 @@
         <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.253857142857143</v>
+        <v>-0.2538571428571429</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1827924528301888</v>
+        <v>-0.1827924528301887</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.07106469002695417</v>
+        <v>-0.0710646900269542</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1470,13 +1470,13 @@
         <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.2604285714285716</v>
+        <v>-0.2604285714285715</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1821320754716983</v>
+        <v>-0.1821320754716981</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.0782964959568733</v>
+        <v>-0.07829649595687332</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1487,13 +1487,13 @@
         <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.2671428571428573</v>
+        <v>-0.2671428571428571</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1814716981132077</v>
+        <v>-0.1814716981132075</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.08567115902964961</v>
+        <v>-0.08567115902964959</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1504,13 +1504,13 @@
         <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.2731904761904763</v>
+        <v>-0.2731904761904762</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1808113207547171</v>
+        <v>-0.180811320754717</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.0923791554357592</v>
+        <v>-0.09237915543575922</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1521,13 +1521,13 @@
         <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.2782857142857145</v>
+        <v>-0.2782857142857144</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1801509433962266</v>
+        <v>-0.1801509433962264</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.09813477088948791</v>
+        <v>-0.09813477088948794</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1538,10 +1538,10 @@
         <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.2824285714285716</v>
+        <v>-0.2824285714285715</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.179490566037736</v>
+        <v>-0.1794905660377359</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>-0.1029380053908356</v>
@@ -1555,13 +1555,13 @@
         <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.2867142857142859</v>
+        <v>-0.2867142857142857</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1788301886792454</v>
+        <v>-0.1788301886792453</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.1078840970350405</v>
+        <v>-0.1078840970350404</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1572,10 +1572,10 @@
         <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.2902380952380954</v>
+        <v>-0.2902380952380953</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1781698113207549</v>
+        <v>-0.1781698113207547</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>-0.1120682839173406</v>
@@ -1589,13 +1589,13 @@
         <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.2924761904761907</v>
+        <v>-0.2924761904761905</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1775094339622643</v>
+        <v>-0.1775094339622642</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.1149667565139264</v>
+        <v>-0.1149667565139263</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1606,13 +1606,13 @@
         <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.2923809523809526</v>
+        <v>-0.2923809523809524</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1768490566037737</v>
+        <v>-0.1768490566037736</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.1155318957771789</v>
+        <v>-0.1155318957771788</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1623,13 +1623,13 @@
         <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.2907142857142859</v>
+        <v>-0.2907142857142858</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1761886792452831</v>
+        <v>-0.176188679245283</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1145256064690028</v>
+        <v>-0.1145256064690027</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1640,13 +1640,13 @@
         <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2881904761904764</v>
+        <v>-0.2881904761904762</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1755283018867926</v>
+        <v>-0.1755283018867924</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1126621743036839</v>
+        <v>-0.1126621743036838</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1657,10 +1657,10 @@
         <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2840952380952383</v>
+        <v>-0.2840952380952382</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.174867924528302</v>
+        <v>-0.1748679245283019</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>-0.1092273135669363</v>
@@ -1674,10 +1674,10 @@
         <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.2782857142857145</v>
+        <v>-0.2782857142857144</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1742075471698115</v>
+        <v>-0.1742075471698113</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>-0.104078167115903</v>
@@ -1691,13 +1691,13 @@
         <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.2706190476190478</v>
+        <v>-0.2706190476190476</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1735471698113209</v>
+        <v>-0.1735471698113208</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.09707187780772686</v>
+        <v>-0.09707187780772689</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1708,13 +1708,13 @@
         <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.261809523809524</v>
+        <v>-0.2618095238095238</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1728867924528303</v>
+        <v>-0.1728867924528302</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.08892273135669368</v>
+        <v>-0.08892273135669365</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1725,13 +1725,13 @@
         <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.2530952380952383</v>
+        <v>-0.2530952380952382</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1722264150943398</v>
+        <v>-0.1722264150943396</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.08086882300089851</v>
+        <v>-0.08086882300089854</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1742,13 +1742,13 @@
         <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.2440476190476192</v>
+        <v>-0.2440476190476191</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1715660377358492</v>
+        <v>-0.1715660377358491</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.07248158131177004</v>
+        <v>-0.07248158131177002</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1759,10 +1759,10 @@
         <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.2343809523809525</v>
+        <v>-0.2343809523809524</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1709056603773586</v>
+        <v>-0.1709056603773585</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>-0.06347529200359392</v>
@@ -1776,10 +1776,10 @@
         <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.2246666666666668</v>
+        <v>-0.2246666666666667</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.170245283018868</v>
+        <v>-0.1702452830188679</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>-0.05442138364779875</v>
@@ -1793,10 +1793,10 @@
         <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.2153809523809525</v>
+        <v>-0.2153809523809524</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1695849056603775</v>
+        <v>-0.1695849056603773</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>-0.04579604672057505</v>
@@ -1810,13 +1810,13 @@
         <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.2073333333333335</v>
+        <v>-0.2073333333333334</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1689245283018869</v>
+        <v>-0.1689245283018868</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.03840880503144656</v>
+        <v>-0.03840880503144659</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1827,10 +1827,10 @@
         <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.2000952380952382</v>
+        <v>-0.2000952380952381</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1682641509433963</v>
+        <v>-0.1682641509433962</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>-0.03183108715184191</v>
@@ -1844,13 +1844,13 @@
         <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1930476190476192</v>
+        <v>-0.1930476190476191</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1676037735849058</v>
+        <v>-0.1676037735849056</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.02544384546271342</v>
+        <v>-0.02544384546271344</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1861,13 +1861,13 @@
         <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1860952380952382</v>
+        <v>-0.1860952380952381</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1669433962264152</v>
+        <v>-0.1669433962264151</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.01915184186882304</v>
+        <v>-0.01915184186882302</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1878,13 +1878,13 @@
         <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1801904761904763</v>
+        <v>-0.1801904761904762</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1662830188679246</v>
+        <v>-0.1662830188679245</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.01390745732255166</v>
+        <v>-0.01390745732255169</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1895,10 +1895,10 @@
         <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1757142857142858</v>
+        <v>-0.1757142857142857</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.1656226415094341</v>
+        <v>-0.165622641509434</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>-0.01009164420485176</v>
@@ -1912,10 +1912,10 @@
         <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1720476190476192</v>
+        <v>-0.1720476190476191</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1649622641509435</v>
+        <v>-0.1649622641509434</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>-0.007085354896675666</v>
@@ -1932,10 +1932,10 @@
         <v>-0.1690476190476191</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1643018867924529</v>
+        <v>-0.1643018867924528</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.004745732255166196</v>
+        <v>-0.004745732255166224</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1946,13 +1946,13 @@
         <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1661428571428572</v>
+        <v>-0.1661428571428571</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1636415094339624</v>
+        <v>-0.1636415094339622</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.002501347708894847</v>
+        <v>-0.002501347708894902</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1963,13 +1963,13 @@
         <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.1640000000000001</v>
+        <v>-0.164</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1629811320754718</v>
+        <v>-0.1629811320754717</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.001018867924528322</v>
+        <v>-0.001018867924528349</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1980,13 +1980,13 @@
         <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1628095238095239</v>
+        <v>-0.1628095238095238</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1623207547169812</v>
+        <v>-0.1623207547169811</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.000488769092542668</v>
+        <v>-0.0004887690925427235</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1997,13 +1997,13 @@
         <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.161857142857143</v>
+        <v>-0.1618571428571429</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1616603773584907</v>
+        <v>-0.1616603773584905</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.0001967654986523015</v>
+        <v>-0.0001967654986523293</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2014,13 +2014,13 @@
         <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.1610000000000001</v>
+        <v>-0.161</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.1610000000000001</v>
+        <v>-0.161</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>0</v>
+        <v>-2.775557561562891e-17</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2031,10 +2031,10 @@
         <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1603809523809525</v>
+        <v>-0.1603809523809524</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1603809523809525</v>
+        <v>-0.1603809523809524</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2048,10 +2048,10 @@
         <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1602857142857144</v>
+        <v>-0.1602857142857143</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1602857142857144</v>
+        <v>-0.1602857142857143</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1612380952380953</v>
+        <v>-0.1612380952380952</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1612380952380953</v>
+        <v>-0.1612380952380952</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2082,10 +2082,10 @@
         <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1620952380952382</v>
+        <v>-0.1620952380952381</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1620952380952382</v>
+        <v>-0.1620952380952381</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1630952380952382</v>
+        <v>-0.1630952380952381</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1630952380952382</v>
+        <v>-0.1630952380952381</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1634761904761906</v>
+        <v>-0.1634761904761905</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1634761904761906</v>
+        <v>-0.1634761904761905</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1644285714285715</v>
+        <v>-0.1644285714285714</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1644285714285715</v>
+        <v>-0.1644285714285714</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2150,10 +2150,10 @@
         <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1661904761904763</v>
+        <v>-0.1661904761904762</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1661904761904763</v>
+        <v>-0.1661904761904762</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2167,10 +2167,10 @@
         <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.1679523809523811</v>
+        <v>-0.167952380952381</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.1679523809523811</v>
+        <v>-0.167952380952381</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2184,10 +2184,10 @@
         <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1697619047619049</v>
+        <v>-0.1697619047619048</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1697619047619049</v>
+        <v>-0.1697619047619048</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2201,10 +2201,10 @@
         <v>-0.408</v>
       </c>
       <c r="B103" s="2" t="n">
-        <v>-0.1716190476190477</v>
+        <v>-0.1716190476190476</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>-0.1716190476190477</v>
+        <v>-0.1716190476190476</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>0</v>
@@ -2218,10 +2218,10 @@
         <v>-0.412</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>-0.1737619047619049</v>
+        <v>-0.1737619047619048</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>-0.1737619047619049</v>
+        <v>-0.1737619047619048</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>0</v>
@@ -2235,10 +2235,10 @@
         <v>-0.416</v>
       </c>
       <c r="B105" s="2" t="n">
-        <v>-0.176857142857143</v>
+        <v>-0.1768571428571429</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>-0.176857142857143</v>
+        <v>-0.1768571428571429</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>-0.42</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>-0.179904761904762</v>
+        <v>-0.1799047619047619</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>-0.179904761904762</v>
+        <v>-0.1799047619047619</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>0</v>
@@ -2269,10 +2269,10 @@
         <v>-0.424</v>
       </c>
       <c r="B107" s="2" t="n">
-        <v>-0.182857142857143</v>
+        <v>-0.1828571428571429</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>-0.182857142857143</v>
+        <v>-0.1828571428571429</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>-0.428</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>-0.1856190476190477</v>
+        <v>-0.1856190476190476</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>-0.1856190476190477</v>
+        <v>-0.1856190476190476</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>-0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>-0.188857142857143</v>
+        <v>-0.1888571428571429</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>-0.188857142857143</v>
+        <v>-0.1888571428571429</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>-0.436</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>-0.1927142857142858</v>
+        <v>-0.1927142857142857</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>-0.1927142857142858</v>
+        <v>-0.1927142857142857</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>0</v>
@@ -2337,10 +2337,10 @@
         <v>-0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>-0.1966190476190477</v>
+        <v>-0.1966190476190476</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>-0.1966190476190477</v>
+        <v>-0.1966190476190476</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>0</v>
@@ -2354,10 +2354,10 @@
         <v>-0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.2005238095238095</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.2005238095238095</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>-0.448</v>
       </c>
       <c r="B113" s="2" t="n">
-        <v>-0.2043333333333335</v>
+        <v>-0.2043333333333334</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>-0.2043333333333335</v>
+        <v>-0.2043333333333334</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>0</v>
@@ -2388,10 +2388,10 @@
         <v>-0.452</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>-0.2086190476190478</v>
+        <v>-0.2086190476190476</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>-0.2086190476190478</v>
+        <v>-0.2086190476190476</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>0</v>
@@ -2405,10 +2405,10 @@
         <v>-0.456</v>
       </c>
       <c r="B115" s="2" t="n">
-        <v>-0.213857142857143</v>
+        <v>-0.2138571428571429</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>-0.213857142857143</v>
+        <v>-0.2138571428571429</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>0</v>
@@ -2422,10 +2422,10 @@
         <v>-0.46</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>-0.2187619047619049</v>
+        <v>-0.2187619047619048</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>-0.2187619047619049</v>
+        <v>-0.2187619047619048</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>-0.464</v>
       </c>
       <c r="B117" s="2" t="n">
-        <v>-0.2241904761904763</v>
+        <v>-0.2241904761904762</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>-0.2241904761904763</v>
+        <v>-0.2241904761904762</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>0</v>
@@ -2456,10 +2456,10 @@
         <v>-0.468</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>-0.2300000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>-0.2300000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         <v>-0.472</v>
       </c>
       <c r="B119" s="2" t="n">
-        <v>-0.2362857142857144</v>
+        <v>-0.2362857142857143</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>-0.2362857142857144</v>
+        <v>-0.2362857142857143</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>-0.476</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-0.2432857142857144</v>
+        <v>-0.2432857142857143</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>-0.2432857142857144</v>
+        <v>-0.2432857142857143</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>0</v>
@@ -2507,10 +2507,10 @@
         <v>-0.48</v>
       </c>
       <c r="B121" s="2" t="n">
-        <v>-0.2504285714285716</v>
+        <v>-0.2504285714285714</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>-0.2504285714285716</v>
+        <v>-0.2504285714285714</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>-0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>-0.2573809523809526</v>
+        <v>-0.2573809523809524</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>-0.2573809523809526</v>
+        <v>-0.2573809523809524</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>-0.488</v>
       </c>
       <c r="B123" s="2" t="n">
-        <v>-0.2648571428571431</v>
+        <v>-0.2648571428571429</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>-0.2648571428571431</v>
+        <v>-0.2648571428571429</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>-0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>-0.2728571428571433</v>
+        <v>-0.2728571428571431</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>-0.2728571428571433</v>
+        <v>-0.2728571428571431</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>-0.496</v>
       </c>
       <c r="B125" s="2" t="n">
-        <v>-0.2820714285714291</v>
+        <v>-0.2820714285714289</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>-0.2820714285714291</v>
+        <v>-0.2820714285714289</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>-0.268</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1155318957771789</v>
+        <v>-0.1155318957771788</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt2.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.004</v>
+        <v>-0.1</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.2921904761904761</v>
+        <v>-0.2121904761904763</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.2921904761904761</v>
+        <v>-0.2121904761904763</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,18 +493,18 @@
         <v>-0.268</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>-0.1155318957771788</v>
+        <v>-0.1155318957771789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.008</v>
+        <v>-0.104</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.2844047619047619</v>
+        <v>-0.2107142857142858</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.2844047619047619</v>
+        <v>-0.2107142857142858</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.012</v>
+        <v>-0.108</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.278404761904762</v>
+        <v>-0.2086428571428572</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.278404761904762</v>
+        <v>-0.2086428571428572</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.016</v>
+        <v>-0.112</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.2735238095238096</v>
+        <v>-0.2064761904761906</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.2735238095238096</v>
+        <v>-0.2064761904761906</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.02</v>
+        <v>-0.116</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.2687142857142857</v>
+        <v>-0.2050952380952382</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.2687142857142857</v>
+        <v>-0.2050952380952382</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.024</v>
+        <v>-0.12</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.2642857142857142</v>
+        <v>-0.2041428571428573</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.2642857142857142</v>
+        <v>-0.2041428571428573</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.028</v>
+        <v>-0.124</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.2591904761904762</v>
+        <v>-0.2036666666666668</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.2591904761904762</v>
+        <v>-0.2036666666666668</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.032</v>
+        <v>-0.128</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.2546666666666667</v>
+        <v>-0.2021428571428573</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2546666666666667</v>
+        <v>-0.2021428571428573</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.036</v>
+        <v>-0.132</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.2512380952380953</v>
+        <v>-0.2005238095238097</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.2512380952380953</v>
+        <v>-0.2005238095238097</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.04</v>
+        <v>-0.136</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.2480476190476191</v>
+        <v>-0.1996666666666668</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.2480476190476191</v>
+        <v>-0.1996666666666668</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.044</v>
+        <v>-0.14</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.2446666666666667</v>
+        <v>-0.1990476190476192</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.2446666666666667</v>
+        <v>-0.1990476190476192</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.048</v>
+        <v>-0.144</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.2410476190476191</v>
+        <v>-0.1983333333333335</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.2410476190476191</v>
+        <v>-0.1983333333333335</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.052</v>
+        <v>-0.148</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.2372857142857143</v>
+        <v>-0.1973333333333335</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.2372857142857143</v>
+        <v>-0.1973333333333335</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.056</v>
+        <v>-0.152</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.2346666666666667</v>
+        <v>-0.1960000000000001</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.2346666666666667</v>
+        <v>-0.1960000000000002</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-17</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.06</v>
+        <v>-0.156</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.2325714285714286</v>
+        <v>-0.1960000000000001</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.2325714285714286</v>
+        <v>-0.1953396226415096</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0</v>
+        <v>-0.0006603773584905048</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.064</v>
+        <v>-0.16</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.2305714285714286</v>
+        <v>-0.1965714285714287</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.2305714285714286</v>
+        <v>-0.1946792452830191</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>-0.001892183288409649</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.068</v>
+        <v>-0.164</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.2278571428571429</v>
+        <v>-0.1970476190476192</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.2278571428571429</v>
+        <v>-0.1940188679245285</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0</v>
+        <v>-0.003028751123090728</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.168</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.2251428571428571</v>
+        <v>-0.1972380952380954</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.2251428571428571</v>
+        <v>-0.1933584905660379</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>-0.003879604672057474</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.076</v>
+        <v>-0.172</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.2230476190476191</v>
+        <v>-0.1975238095238097</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.2230476190476191</v>
+        <v>-0.1926981132075473</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0</v>
+        <v>-0.004825696316262312</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.08</v>
+        <v>-0.176</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.2212380952380953</v>
+        <v>-0.1985238095238097</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.2212380952380953</v>
+        <v>-0.1920377358490568</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0</v>
+        <v>-0.006486073674752874</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.08400000000000001</v>
+        <v>-0.18</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.2195714285714286</v>
+        <v>-0.2001428571428573</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.2195714285714286</v>
+        <v>-0.1913773584905662</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0</v>
+        <v>-0.008765498652291093</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.08799999999999999</v>
+        <v>-0.184</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.2172857142857143</v>
+        <v>-0.201857142857143</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.2172857142857143</v>
+        <v>-0.1907169811320756</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0</v>
+        <v>-0.01114016172506738</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.092</v>
+        <v>-0.188</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.2147142857142857</v>
+        <v>-0.2030952380952382</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.2147142857142857</v>
+        <v>-0.1900566037735851</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0</v>
+        <v>-0.01303863432165314</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.096</v>
+        <v>-0.192</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.2129523809523809</v>
+        <v>-0.2049523809523811</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.2129523809523809</v>
+        <v>-0.1893962264150945</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0</v>
+        <v>-0.01555615453728659</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.196</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.2118095238095238</v>
+        <v>-0.2082380952380953</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.2118095238095238</v>
+        <v>-0.1887358490566039</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0</v>
+        <v>-0.01950224618149141</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.2</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.2104285714285715</v>
+        <v>-0.2121904761904763</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.2104285714285715</v>
+        <v>-0.1880754716981134</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0</v>
+        <v>-0.02411500449236295</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.204</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.2085238095238096</v>
+        <v>-0.2163809523809525</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.2085238095238096</v>
+        <v>-0.1874150943396228</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0</v>
+        <v>-0.0289658580413297</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.208</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.2064761904761905</v>
+        <v>-0.2200476190476192</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.2064761904761905</v>
+        <v>-0.1867547169811322</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0</v>
+        <v>-0.03329290206648694</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.212</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.2050952380952381</v>
+        <v>-0.2240952380952382</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.2050952380952381</v>
+        <v>-0.1860943396226417</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0</v>
+        <v>-0.03800089847259658</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.216</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.2041428571428572</v>
+        <v>-0.2295714285714287</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.2041428571428572</v>
+        <v>-0.1854339622641511</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0</v>
+        <v>-0.04413746630727761</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.22</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.2036666666666667</v>
+        <v>-0.235857142857143</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.2036666666666667</v>
+        <v>-0.1847735849056605</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0</v>
+        <v>-0.05108355795148248</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.224</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.2021428571428572</v>
+        <v>-0.2424285714285716</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.2021428571428572</v>
+        <v>-0.18411320754717</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0</v>
+        <v>-0.0583153638814016</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.228</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.2005238095238095</v>
+        <v>-0.2482857142857144</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.2005238095238095</v>
+        <v>-0.1834528301886794</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0</v>
+        <v>-0.06483288409703505</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.232</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.1996666666666667</v>
+        <v>-0.253857142857143</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1996666666666667</v>
+        <v>-0.1827924528301888</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0</v>
+        <v>-0.07106469002695417</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.236</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.1990476190476191</v>
+        <v>-0.2604285714285716</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1990476190476191</v>
+        <v>-0.1821320754716983</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0</v>
+        <v>-0.0782964959568733</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.24</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.1983333333333334</v>
+        <v>-0.2671428571428573</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1983333333333334</v>
+        <v>-0.1814716981132077</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0</v>
+        <v>-0.08567115902964961</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.244</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.1973333333333334</v>
+        <v>-0.2731904761904763</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1973333333333334</v>
+        <v>-0.1808113207547171</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0</v>
+        <v>-0.0923791554357592</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.248</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.2782857142857145</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1801509433962266</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>-0.09813477088948791</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.252</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.2824285714285716</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.1953396226415094</v>
+        <v>-0.179490566037736</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.0006603773584905603</v>
+        <v>-0.1029380053908356</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.256</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.1965714285714286</v>
+        <v>-0.2867142857142859</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1946792452830189</v>
+        <v>-0.1788301886792454</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.001892183288409732</v>
+        <v>-0.1078840970350405</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.26</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.1970476190476191</v>
+        <v>-0.2902380952380954</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1940188679245283</v>
+        <v>-0.1781698113207549</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.003028751123090756</v>
+        <v>-0.1120682839173406</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.264</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.1972380952380953</v>
+        <v>-0.2924761904761907</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1933584905660377</v>
+        <v>-0.1775094339622643</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.003879604672057529</v>
+        <v>-0.1149667565139264</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.268</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.1975238095238095</v>
+        <v>-0.2923809523809526</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1926981132075472</v>
+        <v>-0.1768490566037737</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.004825696316262368</v>
+        <v>-0.1155318957771789</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.272</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.1985238095238095</v>
+        <v>-0.2907142857142859</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1920377358490566</v>
+        <v>-0.1761886792452831</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.006486073674752929</v>
+        <v>-0.1145256064690028</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.276</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2001428571428572</v>
+        <v>-0.2881904761904764</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1913773584905661</v>
+        <v>-0.1755283018867926</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.00876549865229112</v>
+        <v>-0.1126621743036838</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.28</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.2018571428571429</v>
+        <v>-0.2840952380952383</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.1907169811320755</v>
+        <v>-0.174867924528302</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.01114016172506743</v>
+        <v>-0.1092273135669363</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.284</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.2030952380952381</v>
+        <v>-0.2782857142857145</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1900566037735849</v>
+        <v>-0.1742075471698115</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.0130386343216532</v>
+        <v>-0.104078167115903</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.288</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.204952380952381</v>
+        <v>-0.2706190476190478</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1893962264150943</v>
+        <v>-0.1735471698113209</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.01555615453728665</v>
+        <v>-0.09707187780772686</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.292</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.2082380952380953</v>
+        <v>-0.2618095238095239</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1887358490566038</v>
+        <v>-0.1728867924528303</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.01950224618149149</v>
+        <v>-0.08892273135669362</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.296</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.2121904761904762</v>
+        <v>-0.2530952380952383</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1880754716981132</v>
+        <v>-0.1722264150943398</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.02411500449236298</v>
+        <v>-0.08086882300089851</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.3</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.2163809523809524</v>
+        <v>-0.2440476190476192</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1874150943396227</v>
+        <v>-0.1715660377358492</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.02896585804132973</v>
+        <v>-0.07248158131177004</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.304</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.2200476190476191</v>
+        <v>-0.2343809523809525</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1867547169811321</v>
+        <v>-0.1709056603773586</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.03329290206648702</v>
+        <v>-0.06347529200359392</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.308</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.2240952380952381</v>
+        <v>-0.2246666666666668</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.1860943396226415</v>
+        <v>-0.170245283018868</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.03800089847259661</v>
+        <v>-0.05442138364779875</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.312</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.2295714285714286</v>
+        <v>-0.2153809523809525</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.185433962264151</v>
+        <v>-0.1695849056603775</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.04413746630727763</v>
+        <v>-0.04579604672057502</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.316</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.2358571428571429</v>
+        <v>-0.2073333333333335</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1847735849056604</v>
+        <v>-0.1689245283018869</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.05108355795148251</v>
+        <v>-0.03840880503144656</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.32</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.2424285714285715</v>
+        <v>-0.2000952380952382</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1841132075471698</v>
+        <v>-0.1682641509433963</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.05831536388140166</v>
+        <v>-0.03183108715184191</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.324</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.2482857142857143</v>
+        <v>-0.1930476190476192</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1834528301886793</v>
+        <v>-0.1676037735849058</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.06483288409703505</v>
+        <v>-0.02544384546271339</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.328</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.2538571428571429</v>
+        <v>-0.1860952380952382</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1827924528301887</v>
+        <v>-0.1669433962264152</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.0710646900269542</v>
+        <v>-0.01915184186882302</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.332</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.2604285714285715</v>
+        <v>-0.1801904761904763</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1821320754716981</v>
+        <v>-0.1662830188679246</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.07829649595687332</v>
+        <v>-0.01390745732255166</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.336</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.2671428571428571</v>
+        <v>-0.1757142857142858</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1814716981132075</v>
+        <v>-0.1656226415094341</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.08567115902964959</v>
+        <v>-0.01009164420485176</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.34</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.2731904761904762</v>
+        <v>-0.1720476190476191</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.180811320754717</v>
+        <v>-0.1649622641509435</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.09237915543575922</v>
+        <v>-0.007085354896675639</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.344</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.2782857142857144</v>
+        <v>-0.1690476190476192</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1801509433962264</v>
+        <v>-0.1643018867924529</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.09813477088948794</v>
+        <v>-0.004745732255166224</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.348</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.2824285714285715</v>
+        <v>-0.1661428571428573</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1794905660377359</v>
+        <v>-0.1636415094339624</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.1029380053908356</v>
+        <v>-0.002501347708894874</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.352</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.2867142857142857</v>
+        <v>-0.1640000000000001</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1788301886792453</v>
+        <v>-0.1629811320754718</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.1078840970350404</v>
+        <v>-0.001018867924528294</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.356</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.2902380952380953</v>
+        <v>-0.1628095238095239</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1781698113207547</v>
+        <v>-0.1623207547169812</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.1120682839173406</v>
+        <v>-0.000488769092542668</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.36</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.2924761904761905</v>
+        <v>-0.1618571428571429</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1775094339622642</v>
+        <v>-0.1616603773584907</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.1149667565139263</v>
+        <v>-0.0001967654986522738</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.364</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.2923809523809524</v>
+        <v>-0.1610000000000001</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1768490566037736</v>
+        <v>-0.1610000000000001</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-0.1155318957771788</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.368</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.2907142857142858</v>
+        <v>-0.1603809523809525</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.176188679245283</v>
+        <v>-0.1603809523809525</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>-0.1145256064690027</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.372</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.2881904761904762</v>
+        <v>-0.1602857142857144</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1755283018867924</v>
+        <v>-0.1602857142857144</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-0.1126621743036838</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.376</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.2840952380952382</v>
+        <v>-0.1612380952380953</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1748679245283019</v>
+        <v>-0.1612380952380953</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>-0.1092273135669363</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.38</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.2782857142857144</v>
+        <v>-0.1620952380952382</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1742075471698113</v>
+        <v>-0.1620952380952382</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>-0.104078167115903</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.384</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.2706190476190476</v>
+        <v>-0.1630952380952382</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1735471698113208</v>
+        <v>-0.1630952380952382</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>-0.09707187780772689</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.388</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.2618095238095238</v>
+        <v>-0.1634761904761906</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1728867924528302</v>
+        <v>-0.1634761904761906</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>-0.08892273135669365</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.392</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.2530952380952382</v>
+        <v>-0.1644285714285715</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1722264150943396</v>
+        <v>-0.1644285714285715</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-0.08086882300089854</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.396</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.2440476190476191</v>
+        <v>-0.1661904761904763</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1715660377358491</v>
+        <v>-0.1661904761904763</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-0.07248158131177002</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.4</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.2343809523809524</v>
+        <v>-0.167952380952381</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.1709056603773585</v>
+        <v>-0.167952380952381</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-0.06347529200359392</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.404</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.2246666666666667</v>
+        <v>-0.1697619047619048</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1702452830188679</v>
+        <v>-0.1697619047619048</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>-0.05442138364779875</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.408</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.2153809523809524</v>
+        <v>-0.1716190476190477</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1695849056603773</v>
+        <v>-0.1716190476190477</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>-0.04579604672057505</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.412</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.2073333333333334</v>
+        <v>-0.1737619047619048</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1689245283018868</v>
+        <v>-0.1737619047619048</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-0.03840880503144659</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.416</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.2000952380952381</v>
+        <v>-0.176857142857143</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.1682641509433962</v>
+        <v>-0.176857142857143</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>-0.03183108715184191</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.42</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.1930476190476191</v>
+        <v>-0.179904761904762</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.1676037735849056</v>
+        <v>-0.179904761904762</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-0.02544384546271344</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.424</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.1860952380952381</v>
+        <v>-0.182857142857143</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.1669433962264151</v>
+        <v>-0.182857142857143</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-0.01915184186882302</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.428</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1801904761904762</v>
+        <v>-0.1856190476190477</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1662830188679245</v>
+        <v>-0.1856190476190477</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>-0.01390745732255169</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.432</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.1757142857142857</v>
+        <v>-0.188857142857143</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.165622641509434</v>
+        <v>-0.188857142857143</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>-0.01009164420485176</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.436</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1720476190476191</v>
+        <v>-0.1927142857142858</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1649622641509434</v>
+        <v>-0.1927142857142858</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>-0.007085354896675666</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.44</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1690476190476191</v>
+        <v>-0.1966190476190477</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1643018867924528</v>
+        <v>-0.1966190476190477</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>-0.004745732255166224</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.444</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.1661428571428571</v>
+        <v>-0.2005238095238097</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.1636415094339622</v>
+        <v>-0.2005238095238097</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>-0.002501347708894902</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.448</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.2043333333333335</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.1629811320754717</v>
+        <v>-0.2043333333333335</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>-0.001018867924528349</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.452</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.1628095238095238</v>
+        <v>-0.2086190476190478</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.1623207547169811</v>
+        <v>-0.2086190476190478</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>-0.0004887690925427235</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.456</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.1618571428571429</v>
+        <v>-0.213857142857143</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.1616603773584905</v>
+        <v>-0.213857142857143</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>-0.0001967654986523293</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.46</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.161</v>
+        <v>-0.2187619047619049</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.161</v>
+        <v>-0.2187619047619049</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>-2.775557561562891e-17</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.464</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.1603809523809524</v>
+        <v>-0.2241904761904763</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.1603809523809524</v>
+        <v>-0.2241904761904763</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.468</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.1602857142857143</v>
+        <v>-0.2300000000000001</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.1602857142857143</v>
+        <v>-0.2300000000000001</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.472</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.1612380952380952</v>
+        <v>-0.2362857142857144</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.1612380952380952</v>
+        <v>-0.2362857142857144</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.476</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.1620952380952381</v>
+        <v>-0.2432857142857144</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.1620952380952381</v>
+        <v>-0.2432857142857144</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.48</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.1630952380952381</v>
+        <v>-0.2504285714285716</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.1630952380952381</v>
+        <v>-0.2504285714285716</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.484</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.1634761904761905</v>
+        <v>-0.2573809523809526</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.1634761904761905</v>
+        <v>-0.2573809523809526</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.488</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.1644285714285714</v>
+        <v>-0.264857142857143</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.1644285714285714</v>
+        <v>-0.264857142857143</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.492</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.1661904761904762</v>
+        <v>-0.2728571428571433</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.1661904761904762</v>
+        <v>-0.2728571428571433</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.496</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.167952380952381</v>
+        <v>-0.2820714285714291</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.167952380952381</v>
+        <v>-0.2820714285714291</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.5</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.1697619047619048</v>
+        <v>-0.2930000000000005</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.1697619047619048</v>
+        <v>-0.2930000000000005</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2195,414 +2195,6 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
-        <v>-0.408</v>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>-0.1716190476190476</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>-0.1716190476190476</v>
-      </c>
-      <c r="D103" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="2" t="n"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
-        <v>-0.412</v>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>-0.1737619047619048</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>-0.1737619047619048</v>
-      </c>
-      <c r="D104" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="2" t="n"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
-        <v>-0.416</v>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>-0.1768571428571429</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>-0.1768571428571429</v>
-      </c>
-      <c r="D105" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="2" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>-0.42</v>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>-0.1799047619047619</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>-0.1799047619047619</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="2" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>-0.424</v>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>-0.1828571428571429</v>
-      </c>
-      <c r="C107" s="2" t="n">
-        <v>-0.1828571428571429</v>
-      </c>
-      <c r="D107" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="2" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
-        <v>-0.428</v>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>-0.1856190476190476</v>
-      </c>
-      <c r="C108" s="2" t="n">
-        <v>-0.1856190476190476</v>
-      </c>
-      <c r="D108" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
-        <v>-0.432</v>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>-0.1888571428571429</v>
-      </c>
-      <c r="C109" s="2" t="n">
-        <v>-0.1888571428571429</v>
-      </c>
-      <c r="D109" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
-        <v>-0.436</v>
-      </c>
-      <c r="B110" s="2" t="n">
-        <v>-0.1927142857142857</v>
-      </c>
-      <c r="C110" s="2" t="n">
-        <v>-0.1927142857142857</v>
-      </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="2" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
-        <v>-0.44</v>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>-0.1966190476190476</v>
-      </c>
-      <c r="C111" s="2" t="n">
-        <v>-0.1966190476190476</v>
-      </c>
-      <c r="D111" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="2" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
-        <v>-0.444</v>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>-0.2005238095238095</v>
-      </c>
-      <c r="C112" s="2" t="n">
-        <v>-0.2005238095238095</v>
-      </c>
-      <c r="D112" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="2" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
-        <v>-0.448</v>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>-0.2043333333333334</v>
-      </c>
-      <c r="C113" s="2" t="n">
-        <v>-0.2043333333333334</v>
-      </c>
-      <c r="D113" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
-        <v>-0.452</v>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>-0.2086190476190476</v>
-      </c>
-      <c r="C114" s="2" t="n">
-        <v>-0.2086190476190476</v>
-      </c>
-      <c r="D114" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
-        <v>-0.456</v>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>-0.2138571428571429</v>
-      </c>
-      <c r="C115" s="2" t="n">
-        <v>-0.2138571428571429</v>
-      </c>
-      <c r="D115" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
-        <v>-0.46</v>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>-0.2187619047619048</v>
-      </c>
-      <c r="C116" s="2" t="n">
-        <v>-0.2187619047619048</v>
-      </c>
-      <c r="D116" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
-        <v>-0.464</v>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>-0.2241904761904762</v>
-      </c>
-      <c r="C117" s="2" t="n">
-        <v>-0.2241904761904762</v>
-      </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="2" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
-        <v>-0.468</v>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="C118" s="2" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="2" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
-        <v>-0.472</v>
-      </c>
-      <c r="B119" s="2" t="n">
-        <v>-0.2362857142857143</v>
-      </c>
-      <c r="C119" s="2" t="n">
-        <v>-0.2362857142857143</v>
-      </c>
-      <c r="D119" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="2" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
-        <v>-0.476</v>
-      </c>
-      <c r="B120" s="2" t="n">
-        <v>-0.2432857142857143</v>
-      </c>
-      <c r="C120" s="2" t="n">
-        <v>-0.2432857142857143</v>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="2" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
-        <v>-0.48</v>
-      </c>
-      <c r="B121" s="2" t="n">
-        <v>-0.2504285714285714</v>
-      </c>
-      <c r="C121" s="2" t="n">
-        <v>-0.2504285714285714</v>
-      </c>
-      <c r="D121" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="2" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
-        <v>-0.484</v>
-      </c>
-      <c r="B122" s="2" t="n">
-        <v>-0.2573809523809524</v>
-      </c>
-      <c r="C122" s="2" t="n">
-        <v>-0.2573809523809524</v>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
-        <v>-0.488</v>
-      </c>
-      <c r="B123" s="2" t="n">
-        <v>-0.2648571428571429</v>
-      </c>
-      <c r="C123" s="2" t="n">
-        <v>-0.2648571428571429</v>
-      </c>
-      <c r="D123" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
-        <v>-0.492</v>
-      </c>
-      <c r="B124" s="2" t="n">
-        <v>-0.2728571428571431</v>
-      </c>
-      <c r="C124" s="2" t="n">
-        <v>-0.2728571428571431</v>
-      </c>
-      <c r="D124" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="2" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
-        <v>-0.496</v>
-      </c>
-      <c r="B125" s="2" t="n">
-        <v>-0.2820714285714289</v>
-      </c>
-      <c r="C125" s="2" t="n">
-        <v>-0.2820714285714289</v>
-      </c>
-      <c r="D125" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="2" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="B126" s="2" t="n">
-        <v>-0.2930000000000005</v>
-      </c>
-      <c r="C126" s="2" t="n">
-        <v>-0.2930000000000005</v>
-      </c>
-      <c r="D126" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2644,7 +2236,7 @@
         <v>-0.268</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.1155318957771788</v>
+        <v>-0.1155318957771789</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Test SWV/DPV Analysis/Analysis Files/Apt2.xlsx
+++ b/Data/Test SWV/DPV Analysis/Analysis Files/Apt2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,13 +477,13 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>-0.1</v>
+        <v>-0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-0.2121904761904763</v>
+        <v>-0.2921904761904763</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>-0.2121904761904763</v>
+        <v>-0.2921904761904763</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -498,13 +498,13 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>-0.104</v>
+        <v>-0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-0.2107142857142858</v>
+        <v>-0.284404761904762</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>-0.2107142857142858</v>
+        <v>-0.284404761904762</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -515,13 +515,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>-0.108</v>
+        <v>-0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>-0.2086428571428572</v>
+        <v>-0.278404761904762</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-0.2086428571428572</v>
+        <v>-0.278404761904762</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>-0.112</v>
+        <v>-0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>-0.2064761904761906</v>
+        <v>-0.2735238095238097</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>-0.2064761904761906</v>
+        <v>-0.2735238095238097</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>0</v>
@@ -549,13 +549,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>-0.116</v>
+        <v>-0.02</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-0.2050952380952382</v>
+        <v>-0.2687142857142859</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>-0.2050952380952382</v>
+        <v>-0.2687142857142859</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -566,13 +566,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>-0.12</v>
+        <v>-0.024</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-0.2041428571428573</v>
+        <v>-0.2642857142857144</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-0.2041428571428573</v>
+        <v>-0.2642857142857144</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>0</v>
@@ -583,13 +583,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>-0.124</v>
+        <v>-0.028</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>-0.2036666666666668</v>
+        <v>-0.2591904761904763</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>-0.2036666666666668</v>
+        <v>-0.2591904761904763</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -600,13 +600,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>-0.128</v>
+        <v>-0.032</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-0.2021428571428573</v>
+        <v>-0.2546666666666668</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>-0.2021428571428573</v>
+        <v>-0.2546666666666668</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>0</v>
@@ -617,13 +617,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>-0.132</v>
+        <v>-0.036</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.2512380952380954</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.2512380952380954</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -634,13 +634,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>-0.136</v>
+        <v>-0.04</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-0.1996666666666668</v>
+        <v>-0.2480476190476192</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-0.1996666666666668</v>
+        <v>-0.2480476190476192</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>0</v>
@@ -651,13 +651,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>-0.14</v>
+        <v>-0.044</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>-0.1990476190476192</v>
+        <v>-0.2446666666666668</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>-0.1990476190476192</v>
+        <v>-0.2446666666666668</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>-0.144</v>
+        <v>-0.048</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>-0.1983333333333335</v>
+        <v>-0.2410476190476192</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>-0.1983333333333335</v>
+        <v>-0.2410476190476192</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -685,13 +685,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>-0.148</v>
+        <v>-0.052</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-0.1973333333333335</v>
+        <v>-0.2372857142857144</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>-0.1973333333333335</v>
+        <v>-0.2372857142857144</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>-0.152</v>
+        <v>-0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-0.1960000000000001</v>
+        <v>-0.2346666666666668</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>-0.1960000000000002</v>
+        <v>-0.2346666666666668</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -719,16 +719,16 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>-0.156</v>
+        <v>-0.06</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-0.1960000000000001</v>
+        <v>-0.2325714285714287</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-0.1953396226415096</v>
+        <v>-0.2325714285714287</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.0006603773584905048</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -736,16 +736,16 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>-0.16</v>
+        <v>-0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>-0.1965714285714287</v>
+        <v>-0.2305714285714287</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>-0.1946792452830191</v>
+        <v>-0.2305714285714287</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.001892183288409649</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -753,16 +753,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>-0.164</v>
+        <v>-0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-0.1970476190476192</v>
+        <v>-0.227857142857143</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>-0.1940188679245285</v>
+        <v>-0.227857142857143</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.003028751123090728</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
@@ -770,16 +770,16 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>-0.168</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-0.1972380952380954</v>
+        <v>-0.2251428571428573</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>-0.1933584905660379</v>
+        <v>-0.2251428571428573</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.003879604672057474</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -787,16 +787,16 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>-0.172</v>
+        <v>-0.076</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-0.1975238095238097</v>
+        <v>-0.2230476190476192</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>-0.1926981132075473</v>
+        <v>-0.2230476190476192</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.004825696316262312</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -804,16 +804,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>-0.176</v>
+        <v>-0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-0.1985238095238097</v>
+        <v>-0.2212380952380954</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>-0.1920377358490568</v>
+        <v>-0.2212380952380954</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.006486073674752874</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
@@ -821,16 +821,16 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>-0.18</v>
+        <v>-0.08400000000000001</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>-0.2001428571428573</v>
+        <v>-0.2195714285714287</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>-0.1913773584905662</v>
+        <v>-0.2195714285714287</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.008765498652291093</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -838,16 +838,16 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>-0.184</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-0.201857142857143</v>
+        <v>-0.2172857142857144</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>-0.1907169811320756</v>
+        <v>-0.2172857142857144</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.01114016172506738</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -855,16 +855,16 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>-0.188</v>
+        <v>-0.092</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>-0.2030952380952382</v>
+        <v>-0.2147142857142859</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>-0.1900566037735851</v>
+        <v>-0.2147142857142859</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.01303863432165314</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -872,16 +872,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>-0.192</v>
+        <v>-0.096</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-0.2049523809523811</v>
+        <v>-0.2129523809523811</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>-0.1893962264150945</v>
+        <v>-0.2129523809523811</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.01555615453728659</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>-0.196</v>
+        <v>-0.1</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-0.2082380952380953</v>
+        <v>-0.2118095238095239</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>-0.1887358490566039</v>
+        <v>-0.2118095238095239</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.01950224618149141</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
@@ -906,16 +906,16 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>-0.2</v>
+        <v>-0.104</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-0.2121904761904763</v>
+        <v>-0.2104285714285716</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>-0.1880754716981134</v>
+        <v>-0.2104285714285716</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.02411500449236295</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
@@ -923,16 +923,16 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>-0.204</v>
+        <v>-0.108</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>-0.2163809523809525</v>
+        <v>-0.2085238095238097</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>-0.1874150943396228</v>
+        <v>-0.2085238095238097</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.0289658580413297</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
@@ -940,16 +940,16 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>-0.208</v>
+        <v>-0.112</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-0.2200476190476192</v>
+        <v>-0.2064761904761906</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>-0.1867547169811322</v>
+        <v>-0.2064761904761906</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.03329290206648694</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
@@ -957,16 +957,16 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>-0.212</v>
+        <v>-0.116</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>-0.2240952380952382</v>
+        <v>-0.2050952380952382</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>-0.1860943396226417</v>
+        <v>-0.2050952380952382</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.03800089847259658</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2" t="n"/>
       <c r="F30" s="2" t="n"/>
@@ -974,16 +974,16 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>-0.216</v>
+        <v>-0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-0.2295714285714287</v>
+        <v>-0.2041428571428573</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>-0.1854339622641511</v>
+        <v>-0.2041428571428573</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.04413746630727761</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -991,16 +991,16 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>-0.22</v>
+        <v>-0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-0.235857142857143</v>
+        <v>-0.2036666666666668</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>-0.1847735849056605</v>
+        <v>-0.2036666666666668</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.05108355795148248</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1008,16 +1008,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>-0.224</v>
+        <v>-0.128</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>-0.2424285714285716</v>
+        <v>-0.2021428571428573</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>-0.18411320754717</v>
+        <v>-0.2021428571428573</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>-0.0583153638814016</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1025,16 +1025,16 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>-0.228</v>
+        <v>-0.132</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-0.2482857142857144</v>
+        <v>-0.2005238095238097</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>-0.1834528301886794</v>
+        <v>-0.2005238095238097</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-0.06483288409703505</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
@@ -1042,16 +1042,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>-0.232</v>
+        <v>-0.136</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>-0.253857142857143</v>
+        <v>-0.1996666666666668</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>-0.1827924528301888</v>
+        <v>-0.1996666666666668</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>-0.07106469002695417</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
@@ -1059,16 +1059,16 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>-0.236</v>
+        <v>-0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-0.2604285714285716</v>
+        <v>-0.1990476190476192</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>-0.1821320754716983</v>
+        <v>-0.1990476190476192</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-0.0782964959568733</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2" t="n"/>
       <c r="F36" s="2" t="n"/>
@@ -1076,16 +1076,16 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>-0.24</v>
+        <v>-0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>-0.2671428571428573</v>
+        <v>-0.1983333333333335</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>-0.1814716981132077</v>
+        <v>-0.1983333333333335</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>-0.08567115902964961</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2" t="n"/>
       <c r="F37" s="2" t="n"/>
@@ -1093,16 +1093,16 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>-0.244</v>
+        <v>-0.148</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-0.2731904761904763</v>
+        <v>-0.1973333333333335</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>-0.1808113207547171</v>
+        <v>-0.1973333333333335</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-0.0923791554357592</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n"/>
       <c r="F38" s="2" t="n"/>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>-0.248</v>
+        <v>-0.152</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>-0.2782857142857145</v>
+        <v>-0.1960000000000001</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>-0.1801509433962266</v>
+        <v>-0.1960000000000001</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>-0.09813477088948791</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2" t="n"/>
       <c r="F39" s="2" t="n"/>
@@ -1127,16 +1127,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>-0.252</v>
+        <v>-0.156</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>-0.2824285714285716</v>
+        <v>-0.1960000000000001</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>-0.179490566037736</v>
+        <v>-0.1953396226415096</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>-0.1029380053908356</v>
+        <v>-0.0006603773584905881</v>
       </c>
       <c r="E40" s="2" t="n"/>
       <c r="F40" s="2" t="n"/>
@@ -1144,16 +1144,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>-0.256</v>
+        <v>-0.16</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-0.2867142857142859</v>
+        <v>-0.1965714285714287</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>-0.1788301886792454</v>
+        <v>-0.194679245283019</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>-0.1078840970350405</v>
+        <v>-0.001892183288409732</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1161,16 +1161,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>-0.26</v>
+        <v>-0.164</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-0.2902380952380954</v>
+        <v>-0.1970476190476192</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>-0.1781698113207549</v>
+        <v>-0.1940188679245284</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>-0.1120682839173406</v>
+        <v>-0.003028751123090756</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1178,16 +1178,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>-0.264</v>
+        <v>-0.168</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>-0.2924761904761907</v>
+        <v>-0.1972380952380954</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>-0.1775094339622643</v>
+        <v>-0.1933584905660378</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>-0.1149667565139264</v>
+        <v>-0.003879604672057529</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1195,16 +1195,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>-0.268</v>
+        <v>-0.172</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>-0.2923809523809526</v>
+        <v>-0.1975238095238097</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>-0.1768490566037737</v>
+        <v>-0.1926981132075473</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-0.1155318957771789</v>
+        <v>-0.004825696316262368</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1212,16 +1212,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>-0.272</v>
+        <v>-0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-0.2907142857142859</v>
+        <v>-0.1985238095238097</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>-0.1761886792452831</v>
+        <v>-0.1920377358490567</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>-0.1145256064690028</v>
+        <v>-0.006486073674752929</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1229,16 +1229,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>-0.276</v>
+        <v>-0.18</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-0.2881904761904764</v>
+        <v>-0.2001428571428573</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>-0.1755283018867926</v>
+        <v>-0.1913773584905662</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>-0.1126621743036838</v>
+        <v>-0.00876549865229112</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1246,16 +1246,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>-0.28</v>
+        <v>-0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-0.2840952380952383</v>
+        <v>-0.201857142857143</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>-0.174867924528302</v>
+        <v>-0.1907169811320756</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-0.1092273135669363</v>
+        <v>-0.01114016172506743</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1263,16 +1263,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>-0.284</v>
+        <v>-0.188</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-0.2782857142857145</v>
+        <v>-0.2030952380952382</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>-0.1742075471698115</v>
+        <v>-0.190056603773585</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>-0.104078167115903</v>
+        <v>-0.01303863432165323</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>-0.288</v>
+        <v>-0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-0.2706190476190478</v>
+        <v>-0.2049523809523811</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>-0.1735471698113209</v>
+        <v>-0.1893962264150945</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>-0.09707187780772686</v>
+        <v>-0.01555615453728665</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1297,16 +1297,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>-0.292</v>
+        <v>-0.196</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-0.2618095238095239</v>
+        <v>-0.2082380952380954</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>-0.1728867924528303</v>
+        <v>-0.1887358490566039</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-0.08892273135669362</v>
+        <v>-0.01950224618149149</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1314,16 +1314,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>-0.296</v>
+        <v>-0.2</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>-0.2530952380952383</v>
+        <v>-0.2121904761904763</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>-0.1722264150943398</v>
+        <v>-0.1880754716981133</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>-0.08086882300089851</v>
+        <v>-0.02411500449236298</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1331,16 +1331,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>-0.3</v>
+        <v>-0.204</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-0.2440476190476192</v>
+        <v>-0.2163809523809525</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>-0.1715660377358492</v>
+        <v>-0.1874150943396228</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-0.07248158131177004</v>
+        <v>-0.02896585804132976</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1348,16 +1348,16 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>-0.304</v>
+        <v>-0.208</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-0.2343809523809525</v>
+        <v>-0.2200476190476192</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>-0.1709056603773586</v>
+        <v>-0.1867547169811322</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-0.06347529200359392</v>
+        <v>-0.033292902066487</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1365,16 +1365,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>-0.308</v>
+        <v>-0.212</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-0.2246666666666668</v>
+        <v>-0.2240952380952382</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>-0.170245283018868</v>
+        <v>-0.1860943396226416</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-0.05442138364779875</v>
+        <v>-0.03800089847259661</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1382,16 +1382,16 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>-0.312</v>
+        <v>-0.216</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-0.2153809523809525</v>
+        <v>-0.2295714285714287</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-0.1695849056603775</v>
+        <v>-0.1854339622641511</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>-0.04579604672057502</v>
+        <v>-0.04413746630727766</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1399,16 +1399,16 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>-0.316</v>
+        <v>-0.22</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-0.2073333333333335</v>
+        <v>-0.235857142857143</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>-0.1689245283018869</v>
+        <v>-0.1847735849056605</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-0.03840880503144656</v>
+        <v>-0.05108355795148251</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1416,16 +1416,16 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>-0.32</v>
+        <v>-0.224</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-0.2000952380952382</v>
+        <v>-0.2424285714285716</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>-0.1682641509433963</v>
+        <v>-0.1841132075471699</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>-0.03183108715184191</v>
+        <v>-0.05831536388140168</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1433,16 +1433,16 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>-0.324</v>
+        <v>-0.228</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-0.1930476190476192</v>
+        <v>-0.2482857142857144</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>-0.1676037735849058</v>
+        <v>-0.1834528301886794</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>-0.02544384546271339</v>
+        <v>-0.06483288409703508</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1450,16 +1450,16 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>-0.328</v>
+        <v>-0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-0.1860952380952382</v>
+        <v>-0.253857142857143</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>-0.1669433962264152</v>
+        <v>-0.1827924528301888</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-0.01915184186882302</v>
+        <v>-0.0710646900269542</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>-0.332</v>
+        <v>-0.236</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-0.1801904761904763</v>
+        <v>-0.2604285714285716</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>-0.1662830188679246</v>
+        <v>-0.1821320754716982</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-0.01390745732255166</v>
+        <v>-0.07829649595687332</v>
       </c>
       <c r="E60" s="2" t="n"/>
       <c r="F60" s="2" t="n"/>
@@ -1484,16 +1484,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>-0.336</v>
+        <v>-0.24</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-0.1757142857142858</v>
+        <v>-0.2671428571428573</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>-0.1656226415094341</v>
+        <v>-0.1814716981132077</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-0.01009164420485176</v>
+        <v>-0.08567115902964964</v>
       </c>
       <c r="E61" s="2" t="n"/>
       <c r="F61" s="2" t="n"/>
@@ -1501,16 +1501,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>-0.34</v>
+        <v>-0.244</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-0.1720476190476191</v>
+        <v>-0.2731904761904763</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>-0.1649622641509435</v>
+        <v>-0.1808113207547171</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>-0.007085354896675639</v>
+        <v>-0.09237915543575922</v>
       </c>
       <c r="E62" s="2" t="n"/>
       <c r="F62" s="2" t="n"/>
@@ -1518,16 +1518,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>-0.344</v>
+        <v>-0.248</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-0.1690476190476192</v>
+        <v>-0.2782857142857145</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>-0.1643018867924529</v>
+        <v>-0.1801509433962265</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>-0.004745732255166224</v>
+        <v>-0.09813477088948794</v>
       </c>
       <c r="E63" s="2" t="n"/>
       <c r="F63" s="2" t="n"/>
@@ -1535,16 +1535,16 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>-0.348</v>
+        <v>-0.252</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-0.1661428571428573</v>
+        <v>-0.2824285714285716</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>-0.1636415094339624</v>
+        <v>-0.179490566037736</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-0.002501347708894874</v>
+        <v>-0.1029380053908357</v>
       </c>
       <c r="E64" s="2" t="n"/>
       <c r="F64" s="2" t="n"/>
@@ -1552,16 +1552,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>-0.352</v>
+        <v>-0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-0.1640000000000001</v>
+        <v>-0.2867142857142859</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>-0.1629811320754718</v>
+        <v>-0.1788301886792454</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-0.001018867924528294</v>
+        <v>-0.1078840970350405</v>
       </c>
       <c r="E65" s="2" t="n"/>
       <c r="F65" s="2" t="n"/>
@@ -1569,16 +1569,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>-0.356</v>
+        <v>-0.26</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-0.1628095238095239</v>
+        <v>-0.2902380952380954</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>-0.1623207547169812</v>
+        <v>-0.1781698113207548</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-0.000488769092542668</v>
+        <v>-0.1120682839173406</v>
       </c>
       <c r="E66" s="2" t="n"/>
       <c r="F66" s="2" t="n"/>
@@ -1586,16 +1586,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>-0.36</v>
+        <v>-0.264</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-0.1618571428571429</v>
+        <v>-0.2924761904761907</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>-0.1616603773584907</v>
+        <v>-0.1775094339622643</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-0.0001967654986522738</v>
+        <v>-0.1149667565139264</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1603,16 +1603,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>-0.364</v>
+        <v>-0.268</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-0.1610000000000001</v>
+        <v>-0.2923809523809526</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>-0.1610000000000001</v>
+        <v>-0.1768490566037737</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0</v>
+        <v>-0.1155318957771789</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1620,16 +1620,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>-0.368</v>
+        <v>-0.272</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-0.1603809523809525</v>
+        <v>-0.2907142857142859</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>-0.1603809523809525</v>
+        <v>-0.1761886792452831</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0</v>
+        <v>-0.1145256064690028</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1637,16 +1637,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>-0.372</v>
+        <v>-0.276</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-0.1602857142857144</v>
+        <v>-0.2881904761904764</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>-0.1602857142857144</v>
+        <v>-0.1755283018867926</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0</v>
+        <v>-0.1126621743036839</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1654,16 +1654,16 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>-0.376</v>
+        <v>-0.28</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-0.1612380952380953</v>
+        <v>-0.2840952380952383</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>-0.1612380952380953</v>
+        <v>-0.174867924528302</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0</v>
+        <v>-0.1092273135669363</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1671,16 +1671,16 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>-0.38</v>
+        <v>-0.284</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-0.1620952380952382</v>
+        <v>-0.2782857142857145</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>-0.1620952380952382</v>
+        <v>-0.1742075471698114</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0</v>
+        <v>-0.104078167115903</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1688,16 +1688,16 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>-0.384</v>
+        <v>-0.288</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-0.1630952380952382</v>
+        <v>-0.2706190476190478</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>-0.1630952380952382</v>
+        <v>-0.1735471698113209</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0</v>
+        <v>-0.09707187780772689</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1705,16 +1705,16 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>-0.388</v>
+        <v>-0.292</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>-0.1634761904761906</v>
+        <v>-0.261809523809524</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>-0.1634761904761906</v>
+        <v>-0.1728867924528303</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0</v>
+        <v>-0.08892273135669371</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1722,16 +1722,16 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>-0.392</v>
+        <v>-0.296</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-0.1644285714285715</v>
+        <v>-0.2530952380952383</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>-0.1644285714285715</v>
+        <v>-0.1722264150943397</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0</v>
+        <v>-0.08086882300089854</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1739,16 +1739,16 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>-0.396</v>
+        <v>-0.3</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-0.1661904761904763</v>
+        <v>-0.2440476190476192</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>-0.1661904761904763</v>
+        <v>-0.1715660377358492</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0</v>
+        <v>-0.07248158131177004</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1756,16 +1756,16 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>-0.4</v>
+        <v>-0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-0.167952380952381</v>
+        <v>-0.2343809523809525</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>-0.167952380952381</v>
+        <v>-0.1709056603773586</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0</v>
+        <v>-0.06347529200359392</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1773,16 +1773,16 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>-0.404</v>
+        <v>-0.308</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>-0.1697619047619048</v>
+        <v>-0.2246666666666668</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>-0.1697619047619048</v>
+        <v>-0.170245283018868</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>0</v>
+        <v>-0.05442138364779875</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1790,16 +1790,16 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>-0.408</v>
+        <v>-0.312</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>-0.1716190476190477</v>
+        <v>-0.2153809523809525</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>-0.1716190476190477</v>
+        <v>-0.1695849056603775</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>0</v>
+        <v>-0.04579604672057508</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1807,16 +1807,16 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>-0.412</v>
+        <v>-0.316</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>-0.1737619047619048</v>
+        <v>-0.2073333333333335</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>-0.1737619047619048</v>
+        <v>-0.1689245283018869</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>0</v>
+        <v>-0.03840880503144659</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1824,16 +1824,16 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>-0.416</v>
+        <v>-0.32</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-0.176857142857143</v>
+        <v>-0.2000952380952382</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>-0.176857142857143</v>
+        <v>-0.1682641509433963</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>0</v>
+        <v>-0.03183108715184191</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>-0.42</v>
+        <v>-0.324</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>-0.179904761904762</v>
+        <v>-0.1930476190476192</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>-0.179904761904762</v>
+        <v>-0.1676037735849057</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>0</v>
+        <v>-0.02544384546271344</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1858,16 +1858,16 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>-0.424</v>
+        <v>-0.328</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-0.182857142857143</v>
+        <v>-0.1860952380952382</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-0.182857142857143</v>
+        <v>-0.1669433962264152</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>0</v>
+        <v>-0.01915184186882304</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1875,16 +1875,16 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>-0.428</v>
+        <v>-0.332</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-0.1856190476190477</v>
+        <v>-0.1801904761904763</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>-0.1856190476190477</v>
+        <v>-0.1662830188679246</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>0</v>
+        <v>-0.01390745732255166</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1892,16 +1892,16 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>-0.432</v>
+        <v>-0.336</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>-0.188857142857143</v>
+        <v>-0.1757142857142858</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>-0.188857142857143</v>
+        <v>-0.1656226415094341</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>0</v>
+        <v>-0.01009164420485176</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>-0.436</v>
+        <v>-0.34</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-0.1927142857142858</v>
+        <v>-0.1720476190476192</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>-0.1927142857142858</v>
+        <v>-0.1649622641509435</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>0</v>
+        <v>-0.007085354896675666</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1926,16 +1926,16 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>-0.44</v>
+        <v>-0.344</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>-0.1966190476190477</v>
+        <v>-0.1690476190476191</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>-0.1966190476190477</v>
+        <v>-0.1643018867924529</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>0</v>
+        <v>-0.004745732255166196</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1943,16 +1943,16 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>-0.444</v>
+        <v>-0.348</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.1661428571428572</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>-0.2005238095238097</v>
+        <v>-0.1636415094339624</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>0</v>
+        <v>-0.002501347708894874</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1960,16 +1960,16 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>-0.448</v>
+        <v>-0.352</v>
       </c>
       <c r="B89" s="2" t="n">
-        <v>-0.2043333333333335</v>
+        <v>-0.1640000000000001</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>-0.2043333333333335</v>
+        <v>-0.1629811320754718</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>0</v>
+        <v>-0.001018867924528322</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1977,16 +1977,16 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>-0.452</v>
+        <v>-0.356</v>
       </c>
       <c r="B90" s="2" t="n">
-        <v>-0.2086190476190478</v>
+        <v>-0.1628095238095239</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>-0.2086190476190478</v>
+        <v>-0.1623207547169812</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>0</v>
+        <v>-0.000488769092542668</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -1994,16 +1994,16 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>-0.456</v>
+        <v>-0.36</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>-0.213857142857143</v>
+        <v>-0.161857142857143</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>-0.213857142857143</v>
+        <v>-0.1616603773584906</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>0</v>
+        <v>-0.0001967654986523293</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>-0.46</v>
+        <v>-0.364</v>
       </c>
       <c r="B92" s="2" t="n">
-        <v>-0.2187619047619049</v>
+        <v>-0.1610000000000001</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>-0.2187619047619049</v>
+        <v>-0.1610000000000001</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>0</v>
@@ -2028,13 +2028,13 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>-0.464</v>
+        <v>-0.368</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>-0.2241904761904763</v>
+        <v>-0.1603809523809525</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>-0.2241904761904763</v>
+        <v>-0.1603809523809525</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>0</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>-0.468</v>
+        <v>-0.372</v>
       </c>
       <c r="B94" s="2" t="n">
-        <v>-0.2300000000000001</v>
+        <v>-0.1602857142857144</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>-0.2300000000000001</v>
+        <v>-0.1602857142857144</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>-0.472</v>
+        <v>-0.376</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-0.2362857142857144</v>
+        <v>-0.1612380952380953</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>-0.2362857142857144</v>
+        <v>-0.1612380952380953</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>0</v>
@@ -2079,13 +2079,13 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>-0.476</v>
+        <v>-0.38</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>-0.2432857142857144</v>
+        <v>-0.1620952380952382</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>-0.2432857142857144</v>
+        <v>-0.1620952380952382</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>-0.48</v>
+        <v>-0.384</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-0.2504285714285716</v>
+        <v>-0.1630952380952382</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>-0.2504285714285716</v>
+        <v>-0.1630952380952382</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>0</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>-0.484</v>
+        <v>-0.388</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>-0.2573809523809526</v>
+        <v>-0.1634761904761906</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>-0.2573809523809526</v>
+        <v>-0.1634761904761906</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>0</v>
@@ -2130,13 +2130,13 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>-0.488</v>
+        <v>-0.392</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>-0.264857142857143</v>
+        <v>-0.1644285714285715</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>-0.264857142857143</v>
+        <v>-0.1644285714285715</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>-0.492</v>
+        <v>-0.396</v>
       </c>
       <c r="B100" s="2" t="n">
-        <v>-0.2728571428571433</v>
+        <v>-0.1661904761904763</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>-0.2728571428571433</v>
+        <v>-0.1661904761904763</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>0</v>
@@ -2164,13 +2164,13 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>-0.496</v>
+        <v>-0.4</v>
       </c>
       <c r="B101" s="2" t="n">
-        <v>-0.2820714285714291</v>
+        <v>-0.1679523809523811</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>-0.2820714285714291</v>
+        <v>-0.1679523809523811</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>0</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>-0.5</v>
+        <v>-0.404</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>-0.2930000000000005</v>
+        <v>-0.1697619047619049</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>-0.2930000000000005</v>
+        <v>-0.1697619047619049</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>0</v>
@@ -2195,6 +2195,414 @@
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>-0.408</v>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>-0.1716190476190477</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>-0.1716190476190477</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>-0.1737619047619049</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>-0.1737619047619049</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="2" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>-0.416</v>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>-0.176857142857143</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>-0.176857142857143</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="2" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>-0.179904761904762</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>-0.179904761904762</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="2" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>-0.182857142857143</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>-0.182857142857143</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="2" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>-0.428</v>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>-0.1856190476190477</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>-0.1856190476190477</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="2" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>-0.188857142857143</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>-0.188857142857143</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="2" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>-0.1927142857142858</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>-0.1927142857142858</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="2" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>-0.1966190476190477</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>-0.1966190476190477</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="2" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>-0.444</v>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>-0.2005238095238097</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>-0.2005238095238097</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="2" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>-0.448</v>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>-0.2043333333333335</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>-0.2043333333333335</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="2" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>-0.2086190476190478</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>-0.2086190476190478</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="2" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>-0.456</v>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>-0.213857142857143</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>-0.213857142857143</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="2" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>-0.2187619047619049</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>-0.2187619047619049</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="2" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>-0.464</v>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>-0.2241904761904763</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>-0.2241904761904763</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>-0.468</v>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>-0.2300000000000001</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>-0.2300000000000001</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>-0.2362857142857144</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>-0.2362857142857144</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>-0.476</v>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>-0.2432857142857144</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>-0.2432857142857144</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>-0.2504285714285716</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>-0.2504285714285716</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="2" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>-0.2573809523809526</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>-0.2573809523809526</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="2" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>-0.2648571428571431</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>-0.2648571428571431</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="2" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>-0.492</v>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>-0.2728571428571432</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>-0.2728571428571432</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="2" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>-0.2820714285714291</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>-0.2820714285714291</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="2" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>-0.2930000000000007</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>-0.2930000000000007</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
